--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>CVMFS Test Matrix</t>
   </si>
@@ -34,6 +34,9 @@
     <t>mountrepo/umountrepo works?</t>
   </si>
   <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <t>RHEL8</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>RHEL6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fusermount becomes available only when the user is in the ‘fuse’ group </t>
   </si>
   <si>
     <t>Non-RHEL</t>
@@ -1351,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1365,7 +1371,7 @@
     <col min="5" max="5" width="11.0781" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6406" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5391" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.7969" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1401,11 +1407,13 @@
       <c r="G2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1417,135 +1425,135 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="11"/>
     </row>
@@ -1561,7 +1569,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
@@ -1573,78 +1581,116 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" t="s" s="13">
+        <v>10</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s" s="13">
-        <v>9</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>11</v>
+      </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>11</v>
+      </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>11</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -1658,7 +1704,9 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="A18" t="s" s="8">
+        <v>15</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1797,12 +1845,42 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G18">
       <formula1>",Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>CVMFS Test Matrix</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>only cvmfsexec works when fuse/fusermount is not available</t>
+  </si>
+  <si>
+    <t>mountrepo works even with the user not in fuse group</t>
+  </si>
+  <si>
+    <t>mountrepo requires fuse/fusermount to be available</t>
   </si>
   <si>
     <t>RHEL7.6</t>
@@ -256,6 +265,15 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -265,16 +283,7 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1357,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1424,463 +1433,489 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="10">
+      <c r="B5" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="13">
         <v>11</v>
       </c>
       <c r="G5" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="13">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="10">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s" s="13">
         <v>11</v>
       </c>
       <c r="G8" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="A10" s="8"/>
+      <c r="B10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="A12" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s" s="10">
-        <v>14</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H14" s="11"/>
+      <c r="A14" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s" s="13">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="H16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="8"/>
+      <c r="B18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G20">
       <formula1>",Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>CVMFS Test Matrix</t>
   </si>
@@ -34,7 +34,7 @@
     <t>mountrepo/umountrepo works?</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>Test remarks</t>
   </si>
   <si>
     <t>RHEL8</t>
@@ -52,22 +52,55 @@
     <t>only cvmfsexec works when fuse/fusermount is not available</t>
   </si>
   <si>
-    <t>mountrepo works even with the user not in fuse group</t>
-  </si>
-  <si>
-    <t>mountrepo requires fuse/fusermount to be available</t>
-  </si>
-  <si>
-    <t>RHEL7.6</t>
-  </si>
-  <si>
-    <t>RHEL6+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fusermount becomes available only when the user is in the ‘fuse’ group </t>
+    <t>only cvmfsexec works (mountrepo requires fuse/fusermount)</t>
+  </si>
+  <si>
+    <t>mountrepo works (even though the user is not in fuse group)</t>
+  </si>
+  <si>
+    <t>mountrepo works</t>
+  </si>
+  <si>
+    <t>neither cvmfsexec nor mountrepo works (error related to unshare)</t>
+  </si>
+  <si>
+    <t>RHEL &lt;= 7.7</t>
+  </si>
+  <si>
+    <t>neither cvmfsexec nor mountrepo works (failed to exec fusermount)</t>
+  </si>
+  <si>
+    <t>(includes RHEL6)</t>
+  </si>
+  <si>
+    <t>neither cvmfsexec nor mountrepo works (permission denied error)</t>
+  </si>
+  <si>
+    <t>only cvmfsexec works since fuse/fusermount is not available</t>
+  </si>
+  <si>
+    <t>mountrepo should work (even though the user is not in fuse group)</t>
+  </si>
+  <si>
+    <t>mountrepo should work</t>
   </si>
   <si>
     <t>Non-RHEL</t>
+  </si>
+  <si>
+    <t>NOTE: using mountrepo requires umountrepo to unmount the repositories and does not clear the mount points upon exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: In RHEL7.8, fusermount comes with fuse and does not require the user to be in fuse group </t>
+  </si>
+  <si>
+    <t>NOTE: In RHEL6+, fusermount is available only when the user is in fuse group and not with just fuse installed</t>
+  </si>
+  <si>
+    <t>NOTE: not tested with prototype</t>
+  </si>
+  <si>
+    <t>NOTE: This case assumes that fusermount is available with installation of fuse even without the user being in the fuse group (similar to RHEL7.8)</t>
   </si>
 </sst>
 </file>
@@ -95,7 +128,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +150,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -240,7 +309,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -284,6 +353,39 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -307,7 +409,13 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fffdad00"/>
+      <rgbColor rgb="fffe634d"/>
       <rgbColor rgb="ff60d836"/>
+      <rgbColor rgb="fffff056"/>
+      <rgbColor rgb="ff72fce9"/>
+      <rgbColor rgb="ff56c1fe"/>
+      <rgbColor rgb="ffff94ca"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1366,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1374,12 +1482,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3906" style="1" customWidth="1"/>
     <col min="2" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.2344" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.0781" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6406" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5391" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.0938" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.9062" style="1" customWidth="1"/>
     <col min="8" max="8" width="55.7969" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1455,7 +1563,7 @@
       <c r="D5" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="14">
         <v>11</v>
       </c>
       <c r="F5" t="s" s="13">
@@ -1464,7 +1572,7 @@
       <c r="G5" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" t="s" s="15">
         <v>12</v>
       </c>
     </row>
@@ -1477,18 +1585,18 @@
         <v>10</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="14">
+        <v>11</v>
       </c>
       <c r="F6" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="15">
         <v>13</v>
       </c>
     </row>
@@ -1501,77 +1609,81 @@
         <v>10</v>
       </c>
       <c r="D7" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" t="s" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s" s="13">
         <v>10</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s" s="17">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="14">
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="G9" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="G9" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" t="s" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="E10" t="s" s="13">
+      <c r="E10" t="s" s="14">
         <v>11</v>
       </c>
       <c r="F10" t="s" s="13">
@@ -1580,29 +1692,57 @@
       <c r="G10" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" t="s" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="B11" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s" s="17">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
@@ -1616,7 +1756,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s" s="12">
         <v>11</v>
@@ -1625,21 +1765,25 @@
         <v>11</v>
       </c>
       <c r="D14" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="G14" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s" s="15">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8"/>
+      <c r="A15" t="s" s="11">
+        <v>19</v>
+      </c>
       <c r="B15" t="s" s="12">
         <v>11</v>
       </c>
@@ -1647,19 +1791,19 @@
         <v>11</v>
       </c>
       <c r="D15" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="13">
-        <v>17</v>
+      <c r="H15" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -1671,18 +1815,20 @@
         <v>11</v>
       </c>
       <c r="D16" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="18">
         <v>11</v>
       </c>
       <c r="F16" t="s" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" t="s" s="15">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="8"/>
@@ -1693,122 +1839,222 @@
         <v>11</v>
       </c>
       <c r="D17" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="13">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="18">
+        <v>10</v>
       </c>
       <c r="F17" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="G17" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s" s="17">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s" s="13">
-        <v>11</v>
-      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="B19" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s" s="19">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s" s="19">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="B22" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s" s="19">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="B23" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s" s="19">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="B24" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s" s="19">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="B25" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s" s="19">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="B26" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s" s="19">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="8"/>
@@ -1821,7 +2067,9 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="8"/>
+      <c r="A28" t="s" s="11">
+        <v>24</v>
+      </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1840,13 +2088,23 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
+    <row r="30" ht="140.05" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s" s="22">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s" s="25">
+        <v>29</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
@@ -1910,12 +2168,92 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G17 B19:G26 B28:G28">
       <formula1>",Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -5,18 +5,21 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="CVMFS Testing Matrix" sheetId="1" r:id="rId4"/>
+    <sheet name="Unpriv. Userns Behavior" sheetId="2" r:id="rId5"/>
+    <sheet name="Behavior Mtrx - FUSE for mountr" sheetId="3" r:id="rId6"/>
+    <sheet name="Misc." sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>CVMFS Test Matrix</t>
-  </si>
-  <si>
-    <t>unprivileged user namespaces enabled? (via sysctl)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+  <si>
+    <t>CVMFS Testing Matrix</t>
+  </si>
+  <si>
+    <t>unprivileged user namespaces supported? (via sysctl)</t>
   </si>
   <si>
     <t>unprivileged user namespaces enabled? (via unshare)</t>
@@ -37,10 +40,7 @@
     <t>Test remarks</t>
   </si>
   <si>
-    <t>RHEL8</t>
-  </si>
-  <si>
-    <t>RHEL7.8</t>
+    <t>RHEL</t>
   </si>
   <si>
     <t>Yes</t>
@@ -55,6 +55,9 @@
     <t>only cvmfsexec works (mountrepo requires fuse/fusermount)</t>
   </si>
   <si>
+    <t>inconsistent system config</t>
+  </si>
+  <si>
     <t>mountrepo works (even though the user is not in fuse group)</t>
   </si>
   <si>
@@ -64,30 +67,73 @@
     <t>neither cvmfsexec nor mountrepo works (error related to unshare)</t>
   </si>
   <si>
-    <t>RHEL &lt;= 7.7</t>
-  </si>
-  <si>
     <t>neither cvmfsexec nor mountrepo works (failed to exec fusermount)</t>
   </si>
   <si>
-    <t>(includes RHEL6)</t>
-  </si>
-  <si>
     <t>neither cvmfsexec nor mountrepo works (permission denied error)</t>
   </si>
   <si>
-    <t>only cvmfsexec works since fuse/fusermount is not available</t>
-  </si>
-  <si>
-    <t>mountrepo should work (even though the user is not in fuse group)</t>
-  </si>
-  <si>
-    <t>mountrepo should work</t>
+    <t>Not possible</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
   <si>
     <t>Non-RHEL</t>
   </si>
   <si>
+    <t>(not covered in the implementation yet)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: Output of </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>unshare</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> depends on </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <i val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>sysctl</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> setting</t>
+    </r>
+  </si>
+  <si>
     <t>NOTE: using mountrepo requires umountrepo to unmount the repositories and does not clear the mount points upon exit</t>
   </si>
   <si>
@@ -101,6 +147,207 @@
   </si>
   <si>
     <t>NOTE: This case assumes that fusermount is available with installation of fuse even without the user being in the fuse group (similar to RHEL7.8)</t>
+  </si>
+  <si>
+    <t>Unprivileged User Namespaces Behavior across Linux Kernels</t>
+  </si>
+  <si>
+    <t>user.max_user_namespaces</t>
+  </si>
+  <si>
+    <t>UNPRIV_USERNS_SUPPORTED</t>
+  </si>
+  <si>
+    <t>UNPRIV_USERNS_ENABLED</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Kernels &gt;= 4.18 or &gt;= 3.10.10-1127 (RHEL8 or RHEL7.8+</t>
+  </si>
+  <si>
+    <t>non-existent</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">non-zero </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(default)</t>
+    </r>
+  </si>
+  <si>
+    <t>Kernels &lt; 3.10.0-1127 (&lt;= RHEL7.7)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">zero </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(default)</t>
+    </r>
+  </si>
+  <si>
+    <t>root can enable unapriv userns with sysctl command</t>
+  </si>
+  <si>
+    <t>non-zero</t>
+  </si>
+  <si>
+    <t>Kernels 2.x (RHEL6)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">non-existent </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>(default)</t>
+    </r>
+  </si>
+  <si>
+    <t>root cannot enable with sysctl command; have to upgrade the system</t>
+  </si>
+  <si>
+    <t>Dependencies between FUSE and mountrepo</t>
+  </si>
+  <si>
+    <t>FUSE_INSTALLED</t>
+  </si>
+  <si>
+    <t>FUSERMOUNT</t>
+  </si>
+  <si>
+    <t>USR_IN_FUSE_GRP</t>
+  </si>
+  <si>
+    <t>mountrepo</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>not possible</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>3.x kernels behavior</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>2.x kernels behave differently</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>inconsistent case</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>3.x kernels</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>yes,yes</t>
+  </si>
+  <si>
+    <t>no, no, no</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>yes,no</t>
+  </si>
+  <si>
+    <t>no, no, yes</t>
+  </si>
+  <si>
+    <t>no, yes, no</t>
+  </si>
+  <si>
+    <t>no, yes, yes</t>
+  </si>
+  <si>
+    <t>yes, no, no</t>
+  </si>
+  <si>
+    <t>yes, no, yes</t>
+  </si>
+  <si>
+    <t>yes, yes, no</t>
+  </si>
+  <si>
+    <t>yes, yes, yes</t>
+  </si>
+  <si>
+    <t>no, yes</t>
+  </si>
+  <si>
+    <t>no,no</t>
+  </si>
+  <si>
+    <t>typical case</t>
+  </si>
+  <si>
+    <t>special case</t>
   </si>
 </sst>
 </file>
@@ -110,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -123,6 +370,13 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -309,7 +563,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -337,55 +591,124 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -411,11 +734,11 @@
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="fffdad00"/>
       <rgbColor rgb="fffe634d"/>
+      <rgbColor rgb="ff919191"/>
       <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="fffff056"/>
       <rgbColor rgb="ff72fce9"/>
-      <rgbColor rgb="ff56c1fe"/>
-      <rgbColor rgb="ffff94ca"/>
+      <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1474,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1542,718 +1865,1007 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s" s="12">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s" s="15">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s" s="15">
+      <c r="B6" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s" s="17">
-        <v>14</v>
+      <c r="B7" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s" s="17">
-        <v>15</v>
+      <c r="B8" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s" s="15">
-        <v>16</v>
+      <c r="B9" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="13">
-        <v>11</v>
+      <c r="B10" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>9</v>
       </c>
       <c r="H10" t="s" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s" s="17">
-        <v>14</v>
+      <c r="B11" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s" s="17">
-        <v>15</v>
-      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="B13" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s" s="15">
-        <v>18</v>
+      <c r="A14" s="8"/>
+      <c r="B14" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s" s="12">
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s" s="15">
-        <v>18</v>
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s" s="15">
-        <v>20</v>
+      <c r="B16" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s" s="18">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s" s="17">
-        <v>15</v>
+      <c r="B17" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="10"/>
+      <c r="B18" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s" s="19">
-        <v>21</v>
+      <c r="B19" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s" s="15">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s" s="19">
-        <v>13</v>
+      <c r="B20" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s" s="15">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s" s="19">
-        <v>22</v>
-      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s" s="19">
-        <v>23</v>
+      <c r="B22" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s" s="12">
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s" s="19">
-        <v>16</v>
+      <c r="B23" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s" s="12">
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s" s="19">
-        <v>16</v>
+      <c r="B24" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s" s="19">
-        <v>14</v>
+      <c r="B25" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" t="s" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s" s="13">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="H26" t="s" s="19">
-        <v>15</v>
+      <c r="B26" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="18">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s" s="12">
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="B27" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="140.05" customHeight="1">
+      <c r="B29" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" t="s" s="21">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s" s="23">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s" s="25">
-        <v>29</v>
-      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="B32" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="B33" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="B34" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="B35" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="B36" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="A41" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" ht="140.05" customHeight="1">
+      <c r="A43" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B41:H41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G17 B19:G26 B28:G28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G29 B31:F38 B40:C40">
       <formula1>",Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2263,4 +2875,1146 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="35.4062" style="25" customWidth="1"/>
+    <col min="2" max="3" width="31.7422" style="25" customWidth="1"/>
+    <col min="4" max="4" width="32.7422" style="25" customWidth="1"/>
+    <col min="5" max="5" width="31.8203" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="32.25" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1">
+      <c r="A13" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E13:E15"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C15">
+      <formula1>",No,Yes,Not possible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D15">
+      <formula1>",No,Yes,Not possible,Depends"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.7266" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.6406" style="29" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
+    <col min="6" max="6" width="28.2734" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.70312" style="29" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="30">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s" s="30">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="38">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s" s="39">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="18">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s" s="18">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s" s="40">
+        <v>54</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="38">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s" s="43">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s" s="42">
+        <v>58</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="38">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s" s="39">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s" s="18">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="38">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s" s="41">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s" s="42">
+        <v>56</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="38">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="43">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="13">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s" s="13">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="44">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="45">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s" s="46">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s" s="46">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s" s="46">
+        <v>63</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="44">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s" s="45">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="9" width="16.3516" style="47" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>67</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" t="s" s="27">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s" s="27">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s" s="27">
+        <v>67</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s" s="10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>CVMFS Testing Matrix</t>
   </si>
@@ -34,10 +34,13 @@
     <t>user in ‘fuse’ group?</t>
   </si>
   <si>
+    <t>cvmfsexec works?</t>
+  </si>
+  <si>
     <t>mountrepo/umountrepo works?</t>
   </si>
   <si>
-    <t>Test remarks</t>
+    <t>test remarks</t>
   </si>
   <si>
     <t>RHEL</t>
@@ -49,13 +52,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>only cvmfsexec works when fuse/fusermount is not available</t>
-  </si>
-  <si>
-    <t>only cvmfsexec works (mountrepo requires fuse/fusermount)</t>
-  </si>
-  <si>
-    <t>inconsistent system config</t>
+    <t>requires fuse/fusermount</t>
+  </si>
+  <si>
+    <t>inconsistent FUSE config</t>
+  </si>
+  <si>
+    <t>works even though the user is not in fuse group</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>neither cvmfsexec nor mountrepo works (error related to unshare)</t>
   </si>
   <si>
     <t>mountrepo works (even though the user is not in fuse group)</t>
@@ -64,16 +73,10 @@
     <t>mountrepo works</t>
   </si>
   <si>
-    <t>neither cvmfsexec nor mountrepo works (error related to unshare)</t>
-  </si>
-  <si>
     <t>neither cvmfsexec nor mountrepo works (failed to exec fusermount)</t>
   </si>
   <si>
     <t>neither cvmfsexec nor mountrepo works (permission denied error)</t>
-  </si>
-  <si>
-    <t>Not possible</t>
   </si>
   <si>
     <t>??</t>
@@ -143,6 +146,25 @@
     <t>NOTE: In RHEL6+, fusermount is available only when the user is in fuse group and not with just fuse installed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>doesn’t exit with status code 0</t>
+    </r>
+  </si>
+  <si>
     <t>NOTE: not tested with prototype</t>
   </si>
   <si>
@@ -168,6 +190,9 @@
   </si>
   <si>
     <t>non-existent</t>
+  </si>
+  <si>
+    <t>Not possible</t>
   </si>
   <si>
     <t>zero</t>
@@ -382,7 +407,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -563,7 +594,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -621,6 +652,9 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -630,10 +664,13 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -699,10 +736,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -732,12 +769,13 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fffe634d"/>
       <rgbColor rgb="fffdad00"/>
-      <rgbColor rgb="fffe634d"/>
       <rgbColor rgb="ff919191"/>
       <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="fffff056"/>
       <rgbColor rgb="ff72fce9"/>
+      <rgbColor rgb="ffff42a1"/>
       <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
@@ -1797,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H57"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1810,9 +1848,9 @@
     <col min="4" max="4" width="11.2344" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.0781" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.0938" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.9062" style="1" customWidth="1"/>
-    <col min="8" max="8" width="55.7969" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="8" width="26.9062" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.7969" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1826,6 +1864,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="44.25" customHeight="1">
       <c r="A2" s="3"/>
@@ -1850,10 +1889,13 @@
       <c r="H2" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="I2" t="s" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1862,196 +1904,221 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="F4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="12">
-        <v>11</v>
+      <c r="H4" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="F5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s" s="11">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="F6" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>11</v>
       </c>
       <c r="F8" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="H8" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>11</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="H9" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="10">
+        <v>10</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s" s="15">
         <v>15</v>
       </c>
     </row>
@@ -2064,197 +2131,222 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s" s="11">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="10">
+        <v>11</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>10</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="12">
+        <v>11</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="12">
+        <v>11</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="10">
+        <v>10</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s" s="15">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s" s="15">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" t="s" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s" s="11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="10">
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s" s="15">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G20" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -2266,189 +2358,222 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s" s="11">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s" s="11">
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="H26" t="s" s="12">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="H26" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s" s="11">
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" t="s" s="13">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s" s="15">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G29" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s" s="15">
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -2459,198 +2584,223 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H31" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H32" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H33" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H34" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H35" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H36" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H37" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" t="s" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H38" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s" s="13">
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -2662,6 +2812,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="8"/>
@@ -2672,13 +2823,14 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="19">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s" s="20">
+      <c r="A41" t="s" s="20">
         <v>22</v>
+      </c>
+      <c r="B41" t="s" s="21">
+        <v>23</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -2686,6 +2838,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="8"/>
@@ -2696,28 +2849,32 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" ht="140.05" customHeight="1">
-      <c r="A43" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s" s="21">
+      <c r="A43" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="C43" t="s" s="22">
+      <c r="B43" t="s" s="22">
         <v>25</v>
       </c>
-      <c r="D43" t="s" s="23">
+      <c r="C43" t="s" s="23">
         <v>26</v>
       </c>
-      <c r="E43" t="s" s="24">
+      <c r="D43" t="s" s="24">
         <v>27</v>
       </c>
-      <c r="F43" t="s" s="24">
+      <c r="E43" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="F43" t="s" s="26">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s" s="26">
+        <v>30</v>
+      </c>
       <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="8"/>
@@ -2728,6 +2885,7 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="8"/>
@@ -2738,6 +2896,7 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="8"/>
@@ -2748,6 +2907,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="8"/>
@@ -2758,6 +2918,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="8"/>
@@ -2768,6 +2929,7 @@
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="8"/>
@@ -2778,6 +2940,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="8"/>
@@ -2788,6 +2951,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="8"/>
@@ -2798,6 +2962,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="8"/>
@@ -2808,6 +2973,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="8"/>
@@ -2818,6 +2984,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" s="8"/>
@@ -2828,6 +2995,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="8"/>
@@ -2838,6 +3006,7 @@
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="8"/>
@@ -2848,6 +3017,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="8"/>
@@ -2858,14 +3028,15 @@
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B41:I41"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:G29 B31:F38 B40:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:H29 B31:F38 B40:C40">
       <formula1>",Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2890,17 +3061,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.4062" style="25" customWidth="1"/>
-    <col min="2" max="3" width="31.7422" style="25" customWidth="1"/>
-    <col min="4" max="4" width="32.7422" style="25" customWidth="1"/>
-    <col min="5" max="5" width="31.8203" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="1" width="35.4062" style="27" customWidth="1"/>
+    <col min="2" max="3" width="31.75" style="27" customWidth="1"/>
+    <col min="4" max="4" width="32.7422" style="27" customWidth="1"/>
+    <col min="5" max="5" width="31.8203" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2911,31 +3082,31 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="26">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="27">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s" s="29">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="29">
+        <v>38</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2943,13 +3114,13 @@
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" t="s" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -2957,13 +3128,13 @@
     <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" t="s" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2985,17 +3156,17 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="19">
+      <c r="A8" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="10">
         <v>38</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>19</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3003,29 +3174,29 @@
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" t="s" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" t="s" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3047,33 +3218,33 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" ht="20.1" customHeight="1">
-      <c r="A13" t="s" s="19">
-        <v>42</v>
+      <c r="A13" t="s" s="20">
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s" s="28">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="E13" t="s" s="30">
+        <v>47</v>
       </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" t="s" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -3081,13 +3252,13 @@
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -3142,21 +3313,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.7266" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15.6406" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
-    <col min="6" max="6" width="28.2734" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.70312" style="29" customWidth="1"/>
-    <col min="8" max="8" width="24.3125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18.7344" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.6406" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="6" width="28.2734" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.70312" style="31" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3169,285 +3340,285 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" t="s" s="30">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s" s="30">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s" s="30">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s" s="30">
+      <c r="B2" t="s" s="32">
         <v>49</v>
       </c>
-      <c r="F2" t="s" s="31">
-        <v>33</v>
+      <c r="C2" t="s" s="32">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s" s="32">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s" s="32">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s" s="33">
+        <v>35</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="32">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="35">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="35">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="35">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="F6" s="36"/>
+        <v>55</v>
+      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="38">
+      <c r="A7" t="s" s="40">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="41">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s" s="18">
         <v>53</v>
       </c>
-      <c r="B7" t="s" s="39">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="18">
-        <v>50</v>
-      </c>
       <c r="D7" t="s" s="18">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s" s="18">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s" s="40">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="F7" t="s" s="42">
+        <v>57</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="38">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s" s="41">
-        <v>51</v>
+      <c r="A8" t="s" s="40">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="43">
+        <v>54</v>
       </c>
       <c r="C8" t="s" s="15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s" s="15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s" s="42">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F8" t="s" s="44">
+        <v>59</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="38">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s" s="43">
-        <v>51</v>
+      <c r="A9" t="s" s="40">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s" s="45">
+        <v>54</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s" s="42">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="F9" t="s" s="44">
+        <v>61</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="38">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s" s="39">
-        <v>51</v>
+      <c r="A10" t="s" s="40">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s" s="41">
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s" s="18">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="18">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="38">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s" s="41">
-        <v>51</v>
+      <c r="A11" t="s" s="40">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s" s="43">
+        <v>54</v>
       </c>
       <c r="C11" t="s" s="15">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s" s="15">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s" s="42">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s" s="44">
+        <v>59</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="38">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s" s="43">
-        <v>51</v>
+      <c r="A12" t="s" s="40">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s" s="45">
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s" s="13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="13">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="44">
+      <c r="A13" s="46">
         <v>7</v>
       </c>
-      <c r="B13" t="s" s="45">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s" s="46">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s" s="46">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s" s="46">
-        <v>63</v>
-      </c>
-      <c r="F13" s="36"/>
+      <c r="B13" t="s" s="47">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="48">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s" s="48">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s" s="48">
+        <v>66</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="46">
         <v>8</v>
       </c>
-      <c r="B14" t="s" s="45">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s" s="46">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s" s="46">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s" s="46">
-        <v>51</v>
-      </c>
-      <c r="F14" s="36"/>
+      <c r="B14" t="s" s="47">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="48">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="48">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s" s="48">
+        <v>54</v>
+      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -3598,13 +3769,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="16.3516" style="47" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="47" customWidth="1"/>
+    <col min="1" max="9" width="16.3516" style="49" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3627,25 +3798,25 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s" s="27">
-        <v>67</v>
+      <c r="A3" s="50"/>
+      <c r="B3" t="s" s="28">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="29">
+        <v>70</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" t="s" s="27">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s" s="27">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s" s="27">
-        <v>67</v>
+      <c r="F3" t="s" s="29">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="29">
+        <v>70</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3653,18 +3824,18 @@
       <c r="A4" s="8"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" t="s" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="17"/>
     </row>
@@ -3672,18 +3843,18 @@
       <c r="A5" s="8"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s" s="10">
         <v>70</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>67</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="10">
         <v>70</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>67</v>
       </c>
       <c r="I5" s="17"/>
     </row>
@@ -3691,18 +3862,18 @@
       <c r="A6" s="8"/>
       <c r="B6" s="16"/>
       <c r="C6" t="s" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" t="s" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I6" s="17"/>
     </row>
@@ -3710,18 +3881,18 @@
       <c r="A7" s="8"/>
       <c r="B7" s="16"/>
       <c r="C7" t="s" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" t="s" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7" s="17"/>
     </row>
@@ -3729,18 +3900,18 @@
       <c r="A8" s="8"/>
       <c r="B8" s="16"/>
       <c r="C8" t="s" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" t="s" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -3748,18 +3919,18 @@
       <c r="A9" s="8"/>
       <c r="B9" s="16"/>
       <c r="C9" t="s" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" t="s" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -3767,18 +3938,18 @@
       <c r="A10" s="8"/>
       <c r="B10" s="16"/>
       <c r="C10" t="s" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" t="s" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -3829,21 +4000,21 @@
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" t="s" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I15" s="17"/>
     </row>
@@ -3851,16 +4022,16 @@
       <c r="A16" s="8"/>
       <c r="B16" s="16"/>
       <c r="C16" t="s" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" t="s" s="10">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I16" s="17"/>
     </row>
@@ -3868,16 +4039,16 @@
       <c r="A17" s="8"/>
       <c r="B17" s="16"/>
       <c r="C17" t="s" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="10">
         <v>70</v>
-      </c>
-      <c r="H17" t="s" s="10">
-        <v>67</v>
       </c>
       <c r="I17" s="17"/>
     </row>
@@ -3885,16 +4056,16 @@
       <c r="A18" s="8"/>
       <c r="B18" s="16"/>
       <c r="C18" t="s" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" t="s" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I18" s="17"/>
     </row>
@@ -3902,76 +4073,76 @@
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
       <c r="C19" t="s" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" t="s" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="16"/>
       <c r="C20" t="s" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" t="s" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="16"/>
       <c r="C21" t="s" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" t="s" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" t="s" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">

--- a/cvmfs_test_matrix.xlsx
+++ b/cvmfs_test_matrix.xlsx
@@ -8,13 +8,12 @@
     <sheet name="CVMFS Testing Matrix" sheetId="1" r:id="rId4"/>
     <sheet name="Unpriv. Userns Behavior" sheetId="2" r:id="rId5"/>
     <sheet name="Behavior Mtrx - FUSE for mountr" sheetId="3" r:id="rId6"/>
-    <sheet name="Misc." sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>CVMFS Testing Matrix</t>
   </si>
@@ -40,7 +39,7 @@
     <t>mountrepo/umountrepo works?</t>
   </si>
   <si>
-    <t>test remarks</t>
+    <t>test remarks for mountrepo usage</t>
   </si>
   <si>
     <t>RHEL</t>
@@ -85,7 +84,7 @@
     <t>Non-RHEL</t>
   </si>
   <si>
-    <t>(not covered in the implementation yet)</t>
+    <t>Prototype is expected to work</t>
   </si>
   <si>
     <r>
@@ -326,54 +325,6 @@
   <si>
     <t xml:space="preserve">yes </t>
   </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>yes,yes</t>
-  </si>
-  <si>
-    <t>no, no, no</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>yes,no</t>
-  </si>
-  <si>
-    <t>no, no, yes</t>
-  </si>
-  <si>
-    <t>no, yes, no</t>
-  </si>
-  <si>
-    <t>no, yes, yes</t>
-  </si>
-  <si>
-    <t>yes, no, no</t>
-  </si>
-  <si>
-    <t>yes, no, yes</t>
-  </si>
-  <si>
-    <t>yes, yes, no</t>
-  </si>
-  <si>
-    <t>yes, yes, yes</t>
-  </si>
-  <si>
-    <t>no, yes</t>
-  </si>
-  <si>
-    <t>no,no</t>
-  </si>
-  <si>
-    <t>typical case</t>
-  </si>
-  <si>
-    <t>special case</t>
-  </si>
 </sst>
 </file>
 
@@ -407,7 +358,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +422,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -655,6 +612,9 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -671,6 +631,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -736,16 +699,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,6 +733,7 @@
       <rgbColor rgb="fffff056"/>
       <rgbColor rgb="ff72fce9"/>
       <rgbColor rgb="ffff42a1"/>
+      <rgbColor rgb="ff0075b9"/>
       <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
@@ -2610,7 +2568,7 @@
       <c r="H31" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I31" t="s" s="13">
+      <c r="I31" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2637,7 +2595,7 @@
       <c r="H32" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I32" t="s" s="13">
+      <c r="I32" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2664,7 +2622,7 @@
       <c r="H33" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I33" t="s" s="13">
+      <c r="I33" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2691,7 +2649,7 @@
       <c r="H34" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I34" t="s" s="13">
+      <c r="I34" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2718,7 +2676,7 @@
       <c r="H35" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I35" t="s" s="13">
+      <c r="I35" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2745,7 +2703,7 @@
       <c r="H36" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I36" t="s" s="13">
+      <c r="I36" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2772,7 +2730,7 @@
       <c r="H37" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I37" t="s" s="13">
+      <c r="I37" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2799,7 +2757,7 @@
       <c r="H38" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="I38" t="s" s="13">
+      <c r="I38" t="s" s="20">
         <v>21</v>
       </c>
     </row>
@@ -2826,10 +2784,10 @@
       <c r="I40" s="17"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="20">
+      <c r="A41" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="B41" t="s" s="21">
+      <c r="B41" t="s" s="22">
         <v>23</v>
       </c>
       <c r="C41" s="17"/>
@@ -2852,25 +2810,25 @@
       <c r="I42" s="17"/>
     </row>
     <row r="43" ht="140.05" customHeight="1">
-      <c r="A43" t="s" s="20">
+      <c r="A43" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="B43" t="s" s="22">
+      <c r="B43" t="s" s="23">
         <v>25</v>
       </c>
-      <c r="C43" t="s" s="23">
+      <c r="C43" t="s" s="24">
         <v>26</v>
       </c>
-      <c r="D43" t="s" s="24">
+      <c r="D43" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="E43" t="s" s="25">
+      <c r="E43" t="s" s="26">
         <v>28</v>
       </c>
-      <c r="F43" t="s" s="26">
+      <c r="F43" t="s" s="27">
         <v>29</v>
       </c>
-      <c r="G43" t="s" s="26">
+      <c r="G43" t="s" s="28">
         <v>30</v>
       </c>
       <c r="H43" s="17"/>
@@ -3061,12 +3019,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.4062" style="27" customWidth="1"/>
-    <col min="2" max="3" width="31.75" style="27" customWidth="1"/>
-    <col min="4" max="4" width="32.7422" style="27" customWidth="1"/>
-    <col min="5" max="5" width="31.8203" style="27" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="35.4062" style="29" customWidth="1"/>
+    <col min="2" max="3" width="31.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="32.7422" style="29" customWidth="1"/>
+    <col min="5" max="5" width="31.8203" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -3099,13 +3057,13 @@
       <c r="A3" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="B3" t="s" s="28">
+      <c r="B3" t="s" s="30">
         <v>37</v>
       </c>
-      <c r="C3" t="s" s="29">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="29">
+      <c r="C3" t="s" s="31">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="31">
         <v>38</v>
       </c>
       <c r="E3" s="7"/>
@@ -3156,7 +3114,7 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="20">
+      <c r="A8" t="s" s="21">
         <v>41</v>
       </c>
       <c r="B8" t="s" s="9">
@@ -3218,7 +3176,7 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" ht="20.1" customHeight="1">
-      <c r="A13" t="s" s="20">
+      <c r="A13" t="s" s="21">
         <v>45</v>
       </c>
       <c r="B13" t="s" s="9">
@@ -3230,7 +3188,7 @@
       <c r="D13" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="E13" t="s" s="30">
+      <c r="E13" t="s" s="32">
         <v>47</v>
       </c>
       <c r="F13" s="17"/>
@@ -3313,16 +3271,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="18.7344" style="31" customWidth="1"/>
-    <col min="3" max="3" width="15.6406" style="31" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="31" customWidth="1"/>
-    <col min="6" max="6" width="28.2734" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.70312" style="31" customWidth="1"/>
-    <col min="8" max="8" width="24.3125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="31" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="18.7344" style="33" customWidth="1"/>
+    <col min="3" max="3" width="15.6406" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="33" customWidth="1"/>
+    <col min="6" max="6" width="28.2734" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.70312" style="33" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -3340,19 +3298,19 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" t="s" s="32">
+      <c r="B2" t="s" s="34">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="32">
+      <c r="C2" t="s" s="34">
         <v>50</v>
       </c>
-      <c r="D2" t="s" s="32">
+      <c r="D2" t="s" s="34">
         <v>51</v>
       </c>
-      <c r="E2" t="s" s="32">
+      <c r="E2" t="s" s="34">
         <v>52</v>
       </c>
-      <c r="F2" t="s" s="33">
+      <c r="F2" t="s" s="35">
         <v>35</v>
       </c>
       <c r="G2" s="3"/>
@@ -3360,7 +3318,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="11">
@@ -3375,13 +3333,13 @@
       <c r="E3" t="s" s="11">
         <v>53</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
       <c r="B4" t="s" s="11">
@@ -3396,13 +3354,13 @@
       <c r="E4" t="s" s="11">
         <v>53</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="37">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
       <c r="B5" t="s" s="13">
@@ -3417,13 +3375,13 @@
       <c r="E5" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="37">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
       <c r="B6" t="s" s="13">
@@ -3438,16 +3396,16 @@
       <c r="E6" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="40">
+      <c r="A7" t="s" s="42">
         <v>56</v>
       </c>
-      <c r="B7" t="s" s="41">
+      <c r="B7" t="s" s="43">
         <v>54</v>
       </c>
       <c r="C7" t="s" s="18">
@@ -3459,7 +3417,7 @@
       <c r="E7" t="s" s="18">
         <v>53</v>
       </c>
-      <c r="F7" t="s" s="42">
+      <c r="F7" t="s" s="44">
         <v>57</v>
       </c>
       <c r="G7" s="17"/>
@@ -3467,10 +3425,10 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="40">
+      <c r="A8" t="s" s="42">
         <v>58</v>
       </c>
-      <c r="B8" t="s" s="43">
+      <c r="B8" t="s" s="45">
         <v>54</v>
       </c>
       <c r="C8" t="s" s="15">
@@ -3482,7 +3440,7 @@
       <c r="E8" t="s" s="15">
         <v>53</v>
       </c>
-      <c r="F8" t="s" s="44">
+      <c r="F8" t="s" s="46">
         <v>59</v>
       </c>
       <c r="G8" s="17"/>
@@ -3490,10 +3448,10 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="40">
+      <c r="A9" t="s" s="42">
         <v>60</v>
       </c>
-      <c r="B9" t="s" s="45">
+      <c r="B9" t="s" s="47">
         <v>54</v>
       </c>
       <c r="C9" t="s" s="13">
@@ -3505,7 +3463,7 @@
       <c r="E9" t="s" s="13">
         <v>55</v>
       </c>
-      <c r="F9" t="s" s="44">
+      <c r="F9" t="s" s="46">
         <v>61</v>
       </c>
       <c r="G9" s="17"/>
@@ -3513,10 +3471,10 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="40">
+      <c r="A10" t="s" s="42">
         <v>62</v>
       </c>
-      <c r="B10" t="s" s="41">
+      <c r="B10" t="s" s="43">
         <v>54</v>
       </c>
       <c r="C10" t="s" s="18">
@@ -3536,10 +3494,10 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="40">
+      <c r="A11" t="s" s="42">
         <v>64</v>
       </c>
-      <c r="B11" t="s" s="43">
+      <c r="B11" t="s" s="45">
         <v>54</v>
       </c>
       <c r="C11" t="s" s="15">
@@ -3551,7 +3509,7 @@
       <c r="E11" t="s" s="15">
         <v>54</v>
       </c>
-      <c r="F11" t="s" s="44">
+      <c r="F11" t="s" s="46">
         <v>59</v>
       </c>
       <c r="G11" s="17"/>
@@ -3559,10 +3517,10 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="40">
+      <c r="A12" t="s" s="42">
         <v>65</v>
       </c>
-      <c r="B12" t="s" s="45">
+      <c r="B12" t="s" s="47">
         <v>54</v>
       </c>
       <c r="C12" t="s" s="13">
@@ -3582,43 +3540,43 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="46">
+      <c r="A13" s="48">
         <v>7</v>
       </c>
-      <c r="B13" t="s" s="47">
+      <c r="B13" t="s" s="49">
         <v>54</v>
       </c>
-      <c r="C13" t="s" s="48">
+      <c r="C13" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="D13" t="s" s="48">
+      <c r="D13" t="s" s="50">
         <v>53</v>
       </c>
-      <c r="E13" t="s" s="48">
+      <c r="E13" t="s" s="50">
         <v>66</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="46">
+      <c r="A14" s="48">
         <v>8</v>
       </c>
-      <c r="B14" t="s" s="47">
+      <c r="B14" t="s" s="49">
         <v>54</v>
       </c>
-      <c r="C14" t="s" s="48">
+      <c r="C14" t="s" s="50">
         <v>54</v>
       </c>
-      <c r="D14" t="s" s="48">
+      <c r="D14" t="s" s="50">
         <v>54</v>
       </c>
-      <c r="E14" t="s" s="48">
+      <c r="E14" t="s" s="50">
         <v>54</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -3710,440 +3668,6 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="9" width="16.3516" style="49" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" t="s" s="28">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <v>70</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" t="s" s="29">
-        <v>71</v>
-      </c>
-      <c r="G3" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s" s="29">
-        <v>70</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16"/>
-      <c r="C4" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="16"/>
-      <c r="C5" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="16"/>
-      <c r="C6" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="16"/>
-      <c r="C7" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="16"/>
-      <c r="C8" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="H8" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="16"/>
-      <c r="C10" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="16"/>
-      <c r="C16" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s" s="10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I21" t="s" s="10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s" s="10">
-        <v>81</v>
-      </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="8"/>
